--- a/ChapmanHall/FixArt_candidates.xlsx
+++ b/ChapmanHall/FixArt_candidates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="196">
   <si>
     <t>Fig #</t>
   </si>
@@ -588,9 +588,6 @@
     <t>might be worth a try</t>
   </si>
   <si>
-    <t xml:space="preserve">perhaps acceptable? </t>
-  </si>
-  <si>
     <t>fixed in vcd</t>
   </si>
   <si>
@@ -601,13 +598,19 @@
   </si>
   <si>
     <t>distplot5</t>
+  </si>
+  <si>
+    <t>perhaps acceptable? Change ylim?</t>
+  </si>
+  <si>
+    <t>generate at larger size?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -641,8 +644,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,6 +669,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -669,12 +684,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -686,10 +702,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -991,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1196,12 +1214,12 @@
         <v>168</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s">
         <v>180</v>
@@ -1210,21 +1228,21 @@
         <v>168</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" t="s">
         <v>193</v>
-      </c>
-      <c r="B16" t="s">
-        <v>194</v>
       </c>
       <c r="C16" t="s">
         <v>168</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1787,7 +1805,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>126</v>
       </c>
@@ -1797,8 +1815,8 @@
       <c r="C57" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>190</v>
+      <c r="D57" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1811,6 +1829,9 @@
       <c r="C58" s="1" t="s">
         <v>130</v>
       </c>
+      <c r="D58" s="6" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
@@ -1822,6 +1843,9 @@
       <c r="C59" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="D59" s="6" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
@@ -1833,6 +1857,9 @@
       <c r="C60" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="D60" s="6" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
@@ -1844,6 +1871,9 @@
       <c r="C61" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D61" s="6" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
@@ -1855,6 +1885,9 @@
       <c r="C62" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D62" s="6" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
@@ -1866,6 +1899,9 @@
       <c r="C63" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="D63" s="6" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
@@ -1877,8 +1913,11 @@
       <c r="C64" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>145</v>
       </c>
@@ -1888,8 +1927,11 @@
       <c r="C65" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>147</v>
       </c>
@@ -1899,8 +1941,11 @@
       <c r="C66" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>150</v>
       </c>
@@ -1910,8 +1955,11 @@
       <c r="C67" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>151</v>
       </c>
@@ -1921,8 +1969,11 @@
       <c r="C68" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>154</v>
       </c>
@@ -1932,8 +1983,11 @@
       <c r="C69" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>156</v>
       </c>
@@ -1943,8 +1997,11 @@
       <c r="C70" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>158</v>
       </c>
@@ -1953,6 +2010,9 @@
       </c>
       <c r="C71" s="1" t="s">
         <v>159</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/ChapmanHall/FixArt_candidates.xlsx
+++ b/ChapmanHall/FixArt_candidates.xlsx
@@ -1009,7 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -1017,7 +1017,7 @@
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="58.7109375" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
     <col min="4" max="4" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/ChapmanHall/FixArt_candidates.xlsx
+++ b/ChapmanHall/FixArt_candidates.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -181,7 +180,7 @@
     <t>sax-glm5</t>
   </si>
   <si>
-    <t>Lack of x axis labels </t>
+    <t>Lack of x axis labels</t>
   </si>
   <si>
     <t>5.3</t>
@@ -388,7 +387,7 @@
     <t>donner1-gpairs</t>
   </si>
   <si>
-    <t>May look better if y axis scale labels are horizontal and x axis labels vertical </t>
+    <t>May look better if y axis scale labels are horizontal and x axis labels vertical</t>
   </si>
   <si>
     <t>7.15</t>
@@ -601,12 +600,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -614,22 +609,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -684,7 +664,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -692,93 +672,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Good" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Bad" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Neutral" xfId="22" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -837,32 +754,327 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.14285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8520408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.2908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.72959183673469"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="18.85546875"/>
+    <col min="3" max="3" width="43.28515625"/>
+    <col min="4" max="4" width="42.28515625"/>
+    <col min="5" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -876,11 +1088,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -890,333 +1102,333 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1.2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>1.3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>1.4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>1.5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>51</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>54</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>61</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>63</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>65</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>69</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>71</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -1226,179 +1438,179 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>82</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>89</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>92</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>95</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>98</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>102</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>105</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>108</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>111</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>114</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -1408,11 +1620,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>118</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -1422,39 +1634,39 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>120</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>122</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>125</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -1464,11 +1676,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>127</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -1478,39 +1690,39 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>129</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>132</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>135</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -1520,11 +1732,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>138</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -1534,11 +1746,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>140</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -1548,11 +1760,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>143</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -1562,11 +1774,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>145</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -1576,11 +1788,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>147</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -1590,11 +1802,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>149</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -1604,11 +1816,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>151</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -1618,11 +1830,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>153</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -1632,11 +1844,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>155</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -1646,11 +1858,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>158</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -1660,11 +1872,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>161</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -1674,11 +1886,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>164</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -1688,11 +1900,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>167</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -1702,11 +1914,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>169</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -1716,11 +1928,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>171</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -1730,11 +1942,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>173</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -1744,11 +1956,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>175</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -1758,11 +1970,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>177</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -1772,11 +1984,11 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>181</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -1786,11 +1998,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>183</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -1800,11 +2012,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -1814,11 +2026,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>187</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -1828,11 +2040,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>190</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -1842,11 +2054,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" t="s">
         <v>192</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -1856,66 +2068,40 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/ChapmanHall/FixArt_candidates.xlsx
+++ b/ChapmanHall/FixArt_candidates.xlsx
@@ -366,9 +366,6 @@
     <t>May look better if the y axis label is put further from scale labels</t>
   </si>
   <si>
-    <t>FIXME: should use theme_bw()</t>
-  </si>
-  <si>
     <t>7.7</t>
   </si>
   <si>
@@ -595,6 +592,9 @@
   </si>
   <si>
     <t>nmes2-eff1</t>
+  </si>
+  <si>
+    <t>fixed + theme_bw()</t>
   </si>
 </sst>
 </file>
@@ -624,17 +624,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -652,14 +652,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -672,9 +671,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -686,12 +686,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1061,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1616,30 +1617,30 @@
       <c r="C39" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>116</v>
+      <c r="D39" s="9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
         <v>117</v>
-      </c>
-      <c r="B40" t="s">
-        <v>118</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>116</v>
+      <c r="D40" s="9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" t="s">
         <v>119</v>
-      </c>
-      <c r="B41" t="s">
-        <v>120</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>115</v>
@@ -1650,13 +1651,13 @@
     </row>
     <row r="42" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" t="s">
         <v>121</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D42" t="s">
         <v>67</v>
@@ -1664,41 +1665,41 @@
     </row>
     <row r="43" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" t="s">
         <v>124</v>
-      </c>
-      <c r="B43" t="s">
-        <v>125</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>116</v>
+      <c r="D43" s="9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" t="s">
         <v>126</v>
-      </c>
-      <c r="B44" t="s">
-        <v>127</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>116</v>
+      <c r="D44" s="9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" t="s">
         <v>128</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D45" t="s">
         <v>36</v>
@@ -1706,13 +1707,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" t="s">
         <v>131</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D46" t="s">
         <v>36</v>
@@ -1720,139 +1721,139 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" t="s">
         <v>134</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" t="s">
         <v>137</v>
       </c>
-      <c r="B48" t="s">
-        <v>138</v>
-      </c>
       <c r="C48" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D48" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" t="s">
         <v>139</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" t="s">
         <v>142</v>
       </c>
-      <c r="B50" t="s">
-        <v>143</v>
-      </c>
       <c r="C50" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" t="s">
         <v>144</v>
       </c>
-      <c r="B51" t="s">
-        <v>145</v>
-      </c>
       <c r="C51" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D51" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" t="s">
         <v>146</v>
       </c>
-      <c r="B52" t="s">
-        <v>147</v>
-      </c>
       <c r="C52" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D52" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" t="s">
         <v>148</v>
-      </c>
-      <c r="B53" t="s">
-        <v>149</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" t="s">
         <v>150</v>
-      </c>
-      <c r="B54" t="s">
-        <v>151</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" t="s">
         <v>152</v>
       </c>
-      <c r="B55" t="s">
-        <v>153</v>
-      </c>
       <c r="C55" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D55" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" t="s">
         <v>154</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>33</v>
@@ -1860,13 +1861,13 @@
     </row>
     <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" t="s">
         <v>157</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>33</v>
@@ -1874,27 +1875,27 @@
     </row>
     <row r="58" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" t="s">
         <v>160</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" t="s">
         <v>163</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>33</v>
@@ -1902,13 +1903,13 @@
     </row>
     <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" t="s">
         <v>166</v>
       </c>
-      <c r="B60" t="s">
-        <v>167</v>
-      </c>
       <c r="C60" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>33</v>
@@ -1916,155 +1917,155 @@
     </row>
     <row r="61" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" t="s">
         <v>168</v>
-      </c>
-      <c r="B61" t="s">
-        <v>169</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" t="s">
         <v>170</v>
-      </c>
-      <c r="B62" t="s">
-        <v>171</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" t="s">
         <v>172</v>
       </c>
-      <c r="B63" t="s">
-        <v>173</v>
-      </c>
       <c r="C63" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D63" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B64" t="s">
         <v>174</v>
       </c>
-      <c r="B64" t="s">
-        <v>175</v>
-      </c>
       <c r="C64" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D64" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B65" t="s">
         <v>176</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="D65" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B66" t="s">
         <v>180</v>
       </c>
-      <c r="B66" t="s">
-        <v>181</v>
-      </c>
       <c r="C66" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D66" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B67" t="s">
         <v>182</v>
       </c>
-      <c r="B67" t="s">
-        <v>183</v>
-      </c>
       <c r="C67" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D67" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" t="s">
         <v>184</v>
       </c>
-      <c r="B68" t="s">
-        <v>185</v>
-      </c>
       <c r="C68" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D68" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" t="s">
         <v>186</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B70" t="s">
         <v>189</v>
-      </c>
-      <c r="B70" t="s">
-        <v>190</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B71" t="s">
         <v>191</v>
       </c>
-      <c r="B71" t="s">
-        <v>192</v>
-      </c>
       <c r="C71" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D71" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>67</v>
       </c>
     </row>
